--- a/doc/doc_tables.xlsx
+++ b/doc/doc_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\ghq\github.com\ecormaksin\python_sql_tools\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D992F473-A67F-4842-AB52-25F08D545ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7164DEE-C55D-476E-88CE-74866D05333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{B4A1E6F1-F33B-4253-9030-F05A3D7137CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4A1E6F1-F33B-4253-9030-F05A3D7137CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -907,6 +909,183 @@
       <t>ニチジ</t>
     </rPh>
     <rPh sb="125" eb="127">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_ddl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB接続設定用ファイルの`ddl_target`プロパティにおけるオブジェクトのプロパティの説明</t>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDLを作成したいデータベースを指定します。
+接続ユーザーに複数データベースの参照権限がある場合、
+複数のデータベースのDDLを1ファイルに出力できます。</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>include_tables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exclude_tables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDLに含めたいテーブル・ビューの方が少ない場合、このプロパティにテーブル名・ビュー名を配列で指定します。</t>
+    <rPh sb="4" eb="5">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDLから除外したいテーブル・ビューの方が少ない場合、このプロパティにテーブル名・ビュー名を配列で指定します。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_ddl のオプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDLファイルの出力先フォルダーのパスを指定します。
+未指定の場合は一時フォルダ（`tempfile.gettempdir()`）の`python_sql_tools/ddl/&lt;実行日時(%Y%m%d-%H%M%S-%f)&gt;`に出力します。</t>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ミシテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDLのファイル名を指定します。
+未指定の場合は `ddl.sql` で出力します。</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミシテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
       <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1481,7 +1660,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE64E252-8CDA-4566-811C-C990E548CB6D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1510,10 +1689,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
@@ -1521,27 +1700,45 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1910,4 +2107,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB85F9FE-B69E-48B3-AE30-D640E2032B3E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="97.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5245FB40-6CAB-4D6C-9E80-F1C56561007E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/doc_tables.xlsx
+++ b/doc/doc_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\ghq\github.com\ecormaksin\python_sql_tools\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7164DEE-C55D-476E-88CE-74866D05333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BB85DF-AE84-41B1-83D4-C64DB91B4E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4A1E6F1-F33B-4253-9030-F05A3D7137CE}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -1086,6 +1087,85 @@
       <t>バアイ</t>
     </rPh>
     <rPh sb="36" eb="38">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_view_dependant_table_list のオプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>--view-name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象のビュー名を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDLファイルの出力先フォルダーのパスを指定します。
+未指定の場合は一時フォルダ（`tempfile.gettempdir()`）の`python_sql_tools/view/&lt;実行日時(%Y%m%d-%H%M%S-%f)&gt;`に出力します。</t>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ミシテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビューが依存しているテーブル一覧のファイル名を指定します。
+未指定の場合は `view_dependant_table_list.txt` で出力します。</t>
+    <rPh sb="4" eb="6">
+      <t>イソン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ミシテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
       <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1595,6 +1675,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B091CAB-79A3-4807-AFFB-1D47609B3C73}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868983A-E04B-4E28-9D02-E046216B99CF}">
   <dimension ref="A1:B7"/>
